--- a/unmatched_persons_discrepant_roles.xlsx
+++ b/unmatched_persons_discrepant_roles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamdewey/Development/code/84000-data-rdf/xml-parsing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4124AFD-69AE-7544-AB2C-6F54BDBF59FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B77764-0FA1-4B4C-9035-D89975FAF75A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28420" windowHeight="16100" activeTab="1" xr2:uid="{AA1A54E2-02A9-434E-B49F-C824DE424E33}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28420" windowHeight="15820" xr2:uid="{AA1A54E2-02A9-434E-B49F-C824DE424E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -843,12 +843,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -863,8 +869,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1189,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D804DCDA-38F3-6F46-A929-08C51F317D4A}">
   <dimension ref="A1:F169"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1740,23 +1747,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row r="28" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <v>79</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="E28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1920,23 +1927,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37">
+    <row r="37" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
         <v>76</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4300,23 +4307,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156">
+    <row r="156" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
         <v>62</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D156" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E156" t="s">
-        <v>8</v>
-      </c>
-      <c r="F156" t="s">
+      <c r="E156" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F156" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4592,7 +4599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526F31F5-B02A-5740-87CE-9D773BE86CC7}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A5" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/unmatched_persons_discrepant_roles.xlsx
+++ b/unmatched_persons_discrepant_roles.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamdewey/Development/code/84000-data-rdf/xml-parsing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B77764-0FA1-4B4C-9035-D89975FAF75A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC65E98-AE00-5946-949F-ADDD4F84E08B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28420" windowHeight="15820" xr2:uid="{AA1A54E2-02A9-434E-B49F-C824DE424E33}"/>
+    <workbookView xWindow="40" yWindow="500" windowWidth="28760" windowHeight="15820" activeTab="2" xr2:uid="{AA1A54E2-02A9-434E-B49F-C824DE424E33}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Discrepant roles" sheetId="4" r:id="rId1"/>
+    <sheet name="unmatched persons" sheetId="5" r:id="rId2"/>
+    <sheet name="matched persons" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="discrepant_roles" localSheetId="0">Sheet1!$A$1:$F$169</definedName>
-    <definedName name="unmatched_persons" localSheetId="1">Sheet3!$A$1:$D$42</definedName>
+    <definedName name="discrepant_roles" localSheetId="0">'Discrepant roles'!$A$1:$G$169</definedName>
+    <definedName name="unmatched_persons" localSheetId="1">'unmatched persons'!$A$1:$D$42</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,9 +41,10 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{63F9B9BF-0FC6-6C47-AA8B-C9DBAF50003A}" name="discrepant_roles" type="6" refreshedVersion="7" background="1" saveData="1">
+  <connection id="1" xr16:uid="{3E88EDEA-A882-CD42-BCFD-EF319F5C4B7B}" name="discrepant_roles1" type="6" refreshedVersion="7" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="/Users/williamdewey/Development/code/84000-data-rdf/xml-parsing/discrepant_roles.csv" tab="0" comma="1">
-      <textFields count="6">
+      <textFields count="7">
+        <textField/>
         <textField/>
         <textField/>
         <textField/>
@@ -52,7 +54,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" xr16:uid="{2630C476-45C8-FB4F-B0FB-9CF5C1D26CB6}" name="unmatched_persons" type="6" refreshedVersion="7" background="1" saveData="1">
+  <connection id="2" xr16:uid="{D4CD196E-FAEC-C74E-8803-FFC0EF7F9FDB}" name="unmatched_persons1" type="6" refreshedVersion="7" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="/Users/williamdewey/Development/code/84000-data-rdf/xml-parsing/unmatched_persons.csv" tab="0" comma="1">
       <textFields count="4">
         <textField/>
@@ -66,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="256">
   <si>
     <t>84000 ID</t>
   </si>
@@ -828,6 +830,12 @@
   </si>
   <si>
     <t>Buddhākaravarma</t>
+  </si>
+  <si>
+    <t>toh</t>
+  </si>
+  <si>
+    <t>84000 id</t>
   </si>
 </sst>
 </file>
@@ -843,18 +851,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -871,7 +873,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -890,11 +892,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="discrepant_roles" connectionId="1" xr16:uid="{100BD8B0-A395-7441-8BB7-43A256A90D21}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="discrepant_roles" connectionId="1" xr16:uid="{2EF82285-9FDF-994A-BFC4-B56E95050E9C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="unmatched_persons" connectionId="2" xr16:uid="{109117E1-A902-EE48-8462-EFDED3FE713A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="unmatched_persons" connectionId="2" xr16:uid="{AAD5EE47-40BC-DC40-A259-6EEEC1DA652F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1193,3413 +1195,3923 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D804DCDA-38F3-6F46-A929-08C51F317D4A}">
-  <dimension ref="A1:F169"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC99D1F8-999F-3945-A50E-6CC984F32136}">
+  <dimension ref="A1:G169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
       <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
       <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>55</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>152</v>
+      </c>
+      <c r="C4" t="s">
         <v>56</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>57</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>58</v>
       </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
       <c r="F4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>141</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>498</v>
+      </c>
+      <c r="C5" t="s">
         <v>130</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>131</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>132</v>
       </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
       <c r="F5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
       <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
         <v>35</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>36</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>37</v>
       </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
       <c r="F7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>30</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
         <v>35</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>36</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>47</v>
       </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
       <c r="F8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>40</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9">
+        <v>115</v>
+      </c>
+      <c r="C9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>36</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>47</v>
       </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
       <c r="F9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>42</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10">
+        <v>116</v>
+      </c>
+      <c r="C10" t="s">
         <v>35</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>36</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>47</v>
       </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
       <c r="F10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>44</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11">
+        <v>129</v>
+      </c>
+      <c r="C11" t="s">
         <v>35</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>36</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>47</v>
       </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
       <c r="F11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>48</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12">
+        <v>131</v>
+      </c>
+      <c r="C12" t="s">
         <v>35</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>36</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>47</v>
       </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
       <c r="F12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>54</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13">
+        <v>152</v>
+      </c>
+      <c r="C13" t="s">
         <v>35</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>36</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>47</v>
       </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
       <c r="F13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>87</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14">
+        <v>169</v>
+      </c>
+      <c r="C14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>36</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>47</v>
       </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
       <c r="F14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>92</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15">
+        <v>171</v>
+      </c>
+      <c r="C15" t="s">
         <v>35</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>36</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>47</v>
       </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
       <c r="F15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>127</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16">
+        <v>273</v>
+      </c>
+      <c r="C16" t="s">
         <v>35</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>36</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>47</v>
       </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
       <c r="F16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>129</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17">
+        <v>511</v>
+      </c>
+      <c r="C17" t="s">
         <v>35</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>36</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>47</v>
       </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
       <c r="F17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>131</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18">
+        <v>853</v>
+      </c>
+      <c r="C18" t="s">
         <v>35</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>36</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>47</v>
       </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
       <c r="F18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>143</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19">
+        <v>503</v>
+      </c>
+      <c r="C19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>36</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>47</v>
       </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
       <c r="F19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>146</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20">
+        <v>504</v>
+      </c>
+      <c r="C20" t="s">
         <v>35</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>36</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>47</v>
       </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
       <c r="F20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>148</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21">
+        <v>513</v>
+      </c>
+      <c r="C21" t="s">
         <v>35</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>36</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>47</v>
       </c>
-      <c r="E21" t="s">
-        <v>8</v>
-      </c>
       <c r="F21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>150</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22">
+        <v>514</v>
+      </c>
+      <c r="C22" t="s">
         <v>35</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>36</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>47</v>
       </c>
-      <c r="E22" t="s">
-        <v>8</v>
-      </c>
       <c r="F22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>152</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23">
+        <v>854</v>
+      </c>
+      <c r="C23" t="s">
         <v>35</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>36</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>47</v>
       </c>
-      <c r="E23" t="s">
-        <v>8</v>
-      </c>
       <c r="F23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>154</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24">
+        <v>515</v>
+      </c>
+      <c r="C24" t="s">
         <v>35</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>36</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>47</v>
       </c>
-      <c r="E24" t="s">
-        <v>8</v>
-      </c>
       <c r="F24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>156</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25">
+        <v>855</v>
+      </c>
+      <c r="C25" t="s">
         <v>35</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>36</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>47</v>
       </c>
-      <c r="E25" t="s">
-        <v>8</v>
-      </c>
       <c r="F25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>166</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26">
+        <v>725</v>
+      </c>
+      <c r="C26" t="s">
         <v>35</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>36</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>47</v>
       </c>
-      <c r="E26" t="s">
-        <v>8</v>
-      </c>
       <c r="F26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>167</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27">
+        <v>909</v>
+      </c>
+      <c r="C27" t="s">
         <v>35</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>36</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>47</v>
       </c>
-      <c r="E27" t="s">
-        <v>8</v>
-      </c>
       <c r="F27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>79</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="1">
+        <v>164</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>136</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29">
+        <v>347</v>
+      </c>
+      <c r="C29" t="s">
         <v>85</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>86</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>87</v>
       </c>
-      <c r="E29" t="s">
-        <v>8</v>
-      </c>
       <c r="F29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>78</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30">
+        <v>164</v>
+      </c>
+      <c r="C30" t="s">
         <v>82</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>83</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>84</v>
       </c>
-      <c r="E30" t="s">
-        <v>8</v>
-      </c>
       <c r="F30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>63</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31">
+        <v>156</v>
+      </c>
+      <c r="C31" t="s">
         <v>63</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>64</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>65</v>
       </c>
-      <c r="E31" t="s">
-        <v>8</v>
-      </c>
       <c r="F31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>6</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
         <v>18</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>19</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>20</v>
       </c>
-      <c r="E32" t="s">
-        <v>8</v>
-      </c>
       <c r="F32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>137</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33">
+        <v>349</v>
+      </c>
+      <c r="C33" t="s">
         <v>118</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>119</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>120</v>
       </c>
-      <c r="E33" t="s">
-        <v>8</v>
-      </c>
       <c r="F33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>72</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34">
+        <v>160</v>
+      </c>
+      <c r="C34" t="s">
         <v>73</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>74</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>75</v>
       </c>
-      <c r="E34" t="s">
-        <v>8</v>
-      </c>
       <c r="F34" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>101</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35">
+        <v>179</v>
+      </c>
+      <c r="C35" t="s">
         <v>73</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>74</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>75</v>
       </c>
-      <c r="E35" t="s">
-        <v>8</v>
-      </c>
       <c r="F35" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>65</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36">
+        <v>157</v>
+      </c>
+      <c r="C36" t="s">
         <v>68</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>69</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>26</v>
       </c>
-      <c r="E36" t="s">
-        <v>8</v>
-      </c>
       <c r="F36" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>76</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="1">
+        <v>163</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>9</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
         <v>28</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>29</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>30</v>
       </c>
-      <c r="E38" t="s">
-        <v>8</v>
-      </c>
       <c r="F38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>27</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39">
+        <v>94</v>
+      </c>
+      <c r="C39" t="s">
         <v>41</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>42</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>43</v>
       </c>
-      <c r="E39" t="s">
-        <v>8</v>
-      </c>
       <c r="F39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>64</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40">
+        <v>157</v>
+      </c>
+      <c r="C40" t="s">
         <v>66</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>67</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>23</v>
       </c>
-      <c r="E40" t="s">
-        <v>8</v>
-      </c>
       <c r="F40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>4</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
         <v>14</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>15</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>7</v>
       </c>
-      <c r="E41" t="s">
-        <v>8</v>
-      </c>
       <c r="F41" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>138</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42">
+        <v>384</v>
+      </c>
+      <c r="C42" t="s">
         <v>121</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>122</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>123</v>
       </c>
-      <c r="E42" t="s">
-        <v>8</v>
-      </c>
       <c r="F42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>115</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43">
+        <v>239</v>
+      </c>
+      <c r="C43" t="s">
         <v>107</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>108</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>109</v>
       </c>
-      <c r="E43" t="s">
-        <v>8</v>
-      </c>
       <c r="F43" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>11</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44">
+        <v>52</v>
+      </c>
+      <c r="C44" t="s">
         <v>34</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>6</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>7</v>
       </c>
-      <c r="E44" t="s">
-        <v>8</v>
-      </c>
       <c r="F44" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>13</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45">
+        <v>54</v>
+      </c>
+      <c r="C45" t="s">
         <v>34</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>6</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>7</v>
       </c>
-      <c r="E45" t="s">
-        <v>8</v>
-      </c>
       <c r="F45" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>16</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46">
+        <v>69</v>
+      </c>
+      <c r="C46" t="s">
         <v>34</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>6</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>7</v>
       </c>
-      <c r="E46" t="s">
-        <v>8</v>
-      </c>
       <c r="F46" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>18</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47">
+        <v>70</v>
+      </c>
+      <c r="C47" t="s">
         <v>34</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>6</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>7</v>
       </c>
-      <c r="E47" t="s">
-        <v>8</v>
-      </c>
       <c r="F47" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>20</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48">
+        <v>78</v>
+      </c>
+      <c r="C48" t="s">
         <v>34</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>6</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>7</v>
       </c>
-      <c r="E48" t="s">
-        <v>8</v>
-      </c>
       <c r="F48" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>22</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49">
+        <v>83</v>
+      </c>
+      <c r="C49" t="s">
         <v>34</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>6</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>7</v>
       </c>
-      <c r="E49" t="s">
-        <v>8</v>
-      </c>
       <c r="F49" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>24</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50">
+        <v>85</v>
+      </c>
+      <c r="C50" t="s">
         <v>34</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>6</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>7</v>
       </c>
-      <c r="E50" t="s">
-        <v>8</v>
-      </c>
       <c r="F50" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>26</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51">
+        <v>86</v>
+      </c>
+      <c r="C51" t="s">
         <v>34</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>6</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>7</v>
       </c>
-      <c r="E51" t="s">
-        <v>8</v>
-      </c>
       <c r="F51" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>29</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52">
+        <v>95</v>
+      </c>
+      <c r="C52" t="s">
         <v>34</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>6</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>7</v>
       </c>
-      <c r="E52" t="s">
-        <v>8</v>
-      </c>
       <c r="F52" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>33</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53">
+        <v>97</v>
+      </c>
+      <c r="C53" t="s">
         <v>34</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>6</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>7</v>
       </c>
-      <c r="E53" t="s">
-        <v>8</v>
-      </c>
       <c r="F53" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>41</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54">
+        <v>116</v>
+      </c>
+      <c r="C54" t="s">
         <v>34</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>6</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>7</v>
       </c>
-      <c r="E54" t="s">
-        <v>8</v>
-      </c>
       <c r="F54" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>43</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55">
+        <v>129</v>
+      </c>
+      <c r="C55" t="s">
         <v>34</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>6</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>7</v>
       </c>
-      <c r="E55" t="s">
-        <v>8</v>
-      </c>
       <c r="F55" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>46</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56">
+        <v>131</v>
+      </c>
+      <c r="C56" t="s">
         <v>34</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>6</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>7</v>
       </c>
-      <c r="E56" t="s">
-        <v>8</v>
-      </c>
       <c r="F56" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>53</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57">
+        <v>152</v>
+      </c>
+      <c r="C57" t="s">
         <v>34</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>6</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>7</v>
       </c>
-      <c r="E57" t="s">
-        <v>8</v>
-      </c>
       <c r="F57" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58">
+        <v>153</v>
+      </c>
+      <c r="C58" t="s">
         <v>34</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>62</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>7</v>
       </c>
-      <c r="E58" t="s">
-        <v>8</v>
-      </c>
       <c r="F58" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>59</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59">
+        <v>154</v>
+      </c>
+      <c r="C59" t="s">
         <v>34</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>6</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>7</v>
       </c>
-      <c r="E59" t="s">
-        <v>8</v>
-      </c>
       <c r="F59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>66</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60">
+        <v>158</v>
+      </c>
+      <c r="C60" t="s">
         <v>34</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>62</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>7</v>
       </c>
-      <c r="E60" t="s">
-        <v>8</v>
-      </c>
       <c r="F60" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>71</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61">
+        <v>160</v>
+      </c>
+      <c r="C61" t="s">
         <v>34</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>6</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>7</v>
       </c>
-      <c r="E61" t="s">
-        <v>8</v>
-      </c>
       <c r="F61" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>82</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62">
+        <v>166</v>
+      </c>
+      <c r="C62" t="s">
         <v>34</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>62</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>7</v>
       </c>
-      <c r="E62" t="s">
-        <v>8</v>
-      </c>
       <c r="F62" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>86</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63">
+        <v>169</v>
+      </c>
+      <c r="C63" t="s">
         <v>34</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>6</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>7</v>
       </c>
-      <c r="E63" t="s">
-        <v>8</v>
-      </c>
       <c r="F63" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>91</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64">
+        <v>171</v>
+      </c>
+      <c r="C64" t="s">
         <v>34</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>6</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>7</v>
       </c>
-      <c r="E64" t="s">
-        <v>8</v>
-      </c>
       <c r="F64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>97</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65">
+        <v>178</v>
+      </c>
+      <c r="C65" t="s">
         <v>34</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>62</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>7</v>
       </c>
-      <c r="E65" t="s">
-        <v>8</v>
-      </c>
       <c r="F65" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>100</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66">
+        <v>179</v>
+      </c>
+      <c r="C66" t="s">
         <v>34</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>6</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>7</v>
       </c>
-      <c r="E66" t="s">
-        <v>8</v>
-      </c>
       <c r="F66" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>104</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67">
+        <v>184</v>
+      </c>
+      <c r="C67" t="s">
         <v>34</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>6</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>7</v>
       </c>
-      <c r="E67" t="s">
-        <v>8</v>
-      </c>
       <c r="F67" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>109</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68">
+        <v>218</v>
+      </c>
+      <c r="C68" t="s">
         <v>34</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>6</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>7</v>
       </c>
-      <c r="E68" t="s">
-        <v>8</v>
-      </c>
       <c r="F68" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>122</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69">
+        <v>247</v>
+      </c>
+      <c r="C69" t="s">
         <v>34</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>6</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>7</v>
       </c>
-      <c r="E69" t="s">
-        <v>8</v>
-      </c>
       <c r="F69" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>126</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70">
+        <v>273</v>
+      </c>
+      <c r="C70" t="s">
         <v>34</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>6</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>7</v>
       </c>
-      <c r="E70" t="s">
-        <v>8</v>
-      </c>
       <c r="F70" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>128</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71">
+        <v>511</v>
+      </c>
+      <c r="C71" t="s">
         <v>34</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>6</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>7</v>
       </c>
-      <c r="E71" t="s">
-        <v>8</v>
-      </c>
       <c r="F71" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>130</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72">
+        <v>853</v>
+      </c>
+      <c r="C72" t="s">
         <v>34</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>6</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>7</v>
       </c>
-      <c r="E72" t="s">
-        <v>8</v>
-      </c>
       <c r="F72" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>135</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73">
+        <v>347</v>
+      </c>
+      <c r="C73" t="s">
         <v>34</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>6</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>7</v>
       </c>
-      <c r="E73" t="s">
-        <v>8</v>
-      </c>
       <c r="F73" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>142</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74">
+        <v>503</v>
+      </c>
+      <c r="C74" t="s">
         <v>34</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>6</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>7</v>
       </c>
-      <c r="E74" t="s">
-        <v>8</v>
-      </c>
       <c r="F74" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>145</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75">
+        <v>504</v>
+      </c>
+      <c r="C75" t="s">
         <v>34</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>6</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>7</v>
       </c>
-      <c r="E75" t="s">
-        <v>8</v>
-      </c>
       <c r="F75" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>147</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76">
+        <v>513</v>
+      </c>
+      <c r="C76" t="s">
         <v>34</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>6</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>7</v>
       </c>
-      <c r="E76" t="s">
-        <v>8</v>
-      </c>
       <c r="F76" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>149</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77">
+        <v>514</v>
+      </c>
+      <c r="C77" t="s">
         <v>34</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>6</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>7</v>
       </c>
-      <c r="E77" t="s">
-        <v>8</v>
-      </c>
       <c r="F77" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>151</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78">
+        <v>854</v>
+      </c>
+      <c r="C78" t="s">
         <v>34</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>6</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>7</v>
       </c>
-      <c r="E78" t="s">
-        <v>8</v>
-      </c>
       <c r="F78" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>153</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79">
+        <v>515</v>
+      </c>
+      <c r="C79" t="s">
         <v>34</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>6</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>7</v>
       </c>
-      <c r="E79" t="s">
-        <v>8</v>
-      </c>
       <c r="F79" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>155</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80">
+        <v>855</v>
+      </c>
+      <c r="C80" t="s">
         <v>34</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>6</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>7</v>
       </c>
-      <c r="E80" t="s">
-        <v>8</v>
-      </c>
       <c r="F80" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>162</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81">
+        <v>859</v>
+      </c>
+      <c r="C81" t="s">
         <v>34</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>62</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>7</v>
       </c>
-      <c r="E81" t="s">
-        <v>8</v>
-      </c>
       <c r="F81" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G81" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>165</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82">
+        <v>725</v>
+      </c>
+      <c r="C82" t="s">
         <v>34</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>6</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>7</v>
       </c>
-      <c r="E82" t="s">
-        <v>8</v>
-      </c>
       <c r="F82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>0</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83" t="s">
         <v>5</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>6</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>7</v>
       </c>
-      <c r="E83" t="s">
-        <v>8</v>
-      </c>
       <c r="F83" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84">
+        <v>3</v>
+      </c>
+      <c r="C84" t="s">
         <v>5</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>6</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>7</v>
       </c>
-      <c r="E84" t="s">
-        <v>8</v>
-      </c>
       <c r="F84" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>106</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85">
+        <v>185</v>
+      </c>
+      <c r="C85" t="s">
         <v>98</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>99</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>100</v>
       </c>
-      <c r="E85" t="s">
-        <v>8</v>
-      </c>
       <c r="F85" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G85" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>157</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86">
+        <v>558</v>
+      </c>
+      <c r="C86" t="s">
         <v>133</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>134</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>135</v>
       </c>
-      <c r="E86" t="s">
-        <v>8</v>
-      </c>
       <c r="F86" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G86" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>160</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87">
+        <v>563</v>
+      </c>
+      <c r="C87" t="s">
         <v>133</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>134</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>135</v>
       </c>
-      <c r="E87" t="s">
-        <v>8</v>
-      </c>
       <c r="F87" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G87" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>93</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88">
+        <v>173</v>
+      </c>
+      <c r="C88" t="s">
         <v>88</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>89</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>90</v>
       </c>
-      <c r="E88" t="s">
-        <v>8</v>
-      </c>
       <c r="F88" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G88" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89" t="s">
         <v>10</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>11</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>12</v>
       </c>
-      <c r="E89" t="s">
-        <v>8</v>
-      </c>
       <c r="F89" t="s">
+        <v>8</v>
+      </c>
+      <c r="G89" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>3</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90">
+        <v>3</v>
+      </c>
+      <c r="C90" t="s">
         <v>10</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>11</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>12</v>
       </c>
-      <c r="E90" t="s">
-        <v>8</v>
-      </c>
       <c r="F90" t="s">
+        <v>8</v>
+      </c>
+      <c r="G90" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>139</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91">
+        <v>437</v>
+      </c>
+      <c r="C91" t="s">
         <v>124</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>125</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>126</v>
       </c>
-      <c r="E91" t="s">
-        <v>8</v>
-      </c>
       <c r="F91" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G91" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>117</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92">
+        <v>240</v>
+      </c>
+      <c r="C92" t="s">
         <v>113</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>114</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>50</v>
       </c>
-      <c r="E92" t="s">
-        <v>8</v>
-      </c>
       <c r="F92" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G92" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>31</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93">
+        <v>95</v>
+      </c>
+      <c r="C93" t="s">
         <v>48</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>49</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>50</v>
       </c>
-      <c r="E93" t="s">
-        <v>8</v>
-      </c>
       <c r="F93" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G93" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>47</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94">
+        <v>131</v>
+      </c>
+      <c r="C94" t="s">
         <v>48</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>49</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>50</v>
       </c>
-      <c r="E94" t="s">
-        <v>8</v>
-      </c>
       <c r="F94" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G94" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>60</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95">
+        <v>154</v>
+      </c>
+      <c r="C95" t="s">
         <v>48</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>49</v>
       </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>50</v>
       </c>
-      <c r="E95" t="s">
-        <v>8</v>
-      </c>
       <c r="F95" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G95" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>49</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96">
+        <v>134</v>
+      </c>
+      <c r="C96" t="s">
         <v>54</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>55</v>
       </c>
-      <c r="D96" t="s">
+      <c r="E96" t="s">
         <v>40</v>
       </c>
-      <c r="E96" t="s">
-        <v>8</v>
-      </c>
       <c r="F96" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G96" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>21</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97">
+        <v>78</v>
+      </c>
+      <c r="C97" t="s">
         <v>38</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>39</v>
       </c>
-      <c r="D97" t="s">
+      <c r="E97" t="s">
         <v>40</v>
       </c>
-      <c r="E97" t="s">
-        <v>8</v>
-      </c>
       <c r="F97" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G97" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>35</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98">
+        <v>99</v>
+      </c>
+      <c r="C98" t="s">
         <v>38</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>39</v>
       </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
         <v>40</v>
       </c>
-      <c r="E98" t="s">
-        <v>8</v>
-      </c>
       <c r="F98" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>37</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99">
+        <v>101</v>
+      </c>
+      <c r="C99" t="s">
         <v>38</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>39</v>
       </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
         <v>40</v>
       </c>
-      <c r="E99" t="s">
-        <v>8</v>
-      </c>
       <c r="F99" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G99" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>38</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100">
+        <v>527</v>
+      </c>
+      <c r="C100" t="s">
         <v>38</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>39</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>40</v>
       </c>
-      <c r="E100" t="s">
-        <v>8</v>
-      </c>
       <c r="F100" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G100" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>52</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101">
+        <v>151</v>
+      </c>
+      <c r="C101" t="s">
         <v>38</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>39</v>
       </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
         <v>40</v>
       </c>
-      <c r="E101" t="s">
-        <v>8</v>
-      </c>
       <c r="F101" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G101" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>69</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102">
+        <v>159</v>
+      </c>
+      <c r="C102" t="s">
         <v>38</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>39</v>
       </c>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
         <v>40</v>
       </c>
-      <c r="E102" t="s">
-        <v>8</v>
-      </c>
       <c r="F102" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G102" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>73</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103">
+        <v>161</v>
+      </c>
+      <c r="C103" t="s">
         <v>38</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>39</v>
       </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
         <v>40</v>
       </c>
-      <c r="E103" t="s">
-        <v>8</v>
-      </c>
       <c r="F103" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G103" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>80</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104">
+        <v>165</v>
+      </c>
+      <c r="C104" t="s">
         <v>38</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>39</v>
       </c>
-      <c r="D104" t="s">
+      <c r="E104" t="s">
         <v>40</v>
       </c>
-      <c r="E104" t="s">
-        <v>8</v>
-      </c>
       <c r="F104" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G104" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>84</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105">
+        <v>167</v>
+      </c>
+      <c r="C105" t="s">
         <v>38</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>39</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>40</v>
       </c>
-      <c r="E105" t="s">
-        <v>8</v>
-      </c>
       <c r="F105" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G105" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>89</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106">
+        <v>170</v>
+      </c>
+      <c r="C106" t="s">
         <v>38</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>39</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>40</v>
       </c>
-      <c r="E106" t="s">
-        <v>8</v>
-      </c>
       <c r="F106" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G106" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>103</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107">
+        <v>182</v>
+      </c>
+      <c r="C107" t="s">
         <v>38</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>39</v>
       </c>
-      <c r="D107" t="s">
+      <c r="E107" t="s">
         <v>40</v>
       </c>
-      <c r="E107" t="s">
-        <v>8</v>
-      </c>
       <c r="F107" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>105</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108">
+        <v>184</v>
+      </c>
+      <c r="C108" t="s">
         <v>38</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>39</v>
       </c>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
         <v>40</v>
       </c>
-      <c r="E108" t="s">
-        <v>8</v>
-      </c>
       <c r="F108" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G108" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>110</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109">
+        <v>218</v>
+      </c>
+      <c r="C109" t="s">
         <v>38</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>39</v>
       </c>
-      <c r="D109" t="s">
+      <c r="E109" t="s">
         <v>40</v>
       </c>
-      <c r="E109" t="s">
-        <v>8</v>
-      </c>
       <c r="F109" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G109" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>120</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110">
+        <v>244</v>
+      </c>
+      <c r="C110" t="s">
         <v>38</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>39</v>
       </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
         <v>40</v>
       </c>
-      <c r="E110" t="s">
-        <v>8</v>
-      </c>
       <c r="F110" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G110" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>121</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111">
+        <v>245</v>
+      </c>
+      <c r="C111" t="s">
         <v>38</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>39</v>
       </c>
-      <c r="D111" t="s">
+      <c r="E111" t="s">
         <v>40</v>
       </c>
-      <c r="E111" t="s">
-        <v>8</v>
-      </c>
       <c r="F111" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>164</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112">
+        <v>850</v>
+      </c>
+      <c r="C112" t="s">
         <v>136</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>137</v>
       </c>
-      <c r="D112" t="s">
+      <c r="E112" t="s">
         <v>138</v>
       </c>
-      <c r="E112" t="s">
-        <v>8</v>
-      </c>
       <c r="F112" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G112" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>125</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113">
+        <v>260</v>
+      </c>
+      <c r="C113" t="s">
         <v>115</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>116</v>
       </c>
-      <c r="D113" t="s">
+      <c r="E113" t="s">
         <v>117</v>
       </c>
-      <c r="E113" t="s">
-        <v>8</v>
-      </c>
       <c r="F113" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G113" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>94</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114">
+        <v>173</v>
+      </c>
+      <c r="C114" t="s">
         <v>91</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>92</v>
       </c>
-      <c r="D114" t="s">
+      <c r="E114" t="s">
         <v>93</v>
       </c>
-      <c r="E114" t="s">
-        <v>8</v>
-      </c>
       <c r="F114" t="s">
+        <v>8</v>
+      </c>
+      <c r="G114" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>102</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115">
+        <v>180</v>
+      </c>
+      <c r="C115" t="s">
         <v>95</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>96</v>
       </c>
-      <c r="D115" t="s">
+      <c r="E115" t="s">
         <v>97</v>
       </c>
-      <c r="E115" t="s">
-        <v>8</v>
-      </c>
       <c r="F115" t="s">
+        <v>8</v>
+      </c>
+      <c r="G115" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>116</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116">
+        <v>239</v>
+      </c>
+      <c r="C116" t="s">
         <v>110</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>111</v>
       </c>
-      <c r="D116" t="s">
+      <c r="E116" t="s">
         <v>112</v>
       </c>
-      <c r="E116" t="s">
-        <v>8</v>
-      </c>
       <c r="F116" t="s">
+        <v>8</v>
+      </c>
+      <c r="G116" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>119</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117">
+        <v>242</v>
+      </c>
+      <c r="C117" t="s">
         <v>110</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>111</v>
       </c>
-      <c r="D117" t="s">
+      <c r="E117" t="s">
         <v>112</v>
       </c>
-      <c r="E117" t="s">
-        <v>8</v>
-      </c>
       <c r="F117" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G117" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>70</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118">
+        <v>160</v>
+      </c>
+      <c r="C118" t="s">
         <v>70</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>71</v>
       </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
         <v>72</v>
       </c>
-      <c r="E118" t="s">
-        <v>8</v>
-      </c>
       <c r="F118" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G118" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>99</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119">
+        <v>179</v>
+      </c>
+      <c r="C119" t="s">
         <v>70</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>71</v>
       </c>
-      <c r="D119" t="s">
+      <c r="E119" t="s">
         <v>72</v>
       </c>
-      <c r="E119" t="s">
-        <v>8</v>
-      </c>
       <c r="F119" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G119" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>124</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120">
+        <v>260</v>
+      </c>
+      <c r="C120" t="s">
         <v>70</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>71</v>
       </c>
-      <c r="D120" t="s">
+      <c r="E120" t="s">
         <v>72</v>
       </c>
-      <c r="E120" t="s">
-        <v>8</v>
-      </c>
       <c r="F120" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G120" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>158</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121">
+        <v>558</v>
+      </c>
+      <c r="C121" t="s">
         <v>70</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
         <v>71</v>
       </c>
-      <c r="D121" t="s">
+      <c r="E121" t="s">
         <v>72</v>
       </c>
-      <c r="E121" t="s">
-        <v>8</v>
-      </c>
       <c r="F121" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G121" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>161</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122">
+        <v>563</v>
+      </c>
+      <c r="C122" t="s">
         <v>70</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>71</v>
       </c>
-      <c r="D122" t="s">
+      <c r="E122" t="s">
         <v>72</v>
       </c>
-      <c r="E122" t="s">
-        <v>8</v>
-      </c>
       <c r="F122" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G122" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>111</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123">
+        <v>225</v>
+      </c>
+      <c r="C123" t="s">
         <v>101</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
         <v>102</v>
       </c>
-      <c r="D123" t="s">
+      <c r="E123" t="s">
         <v>103</v>
       </c>
-      <c r="E123" t="s">
-        <v>8</v>
-      </c>
       <c r="F123" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G123" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>34</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124">
+        <v>97</v>
+      </c>
+      <c r="C124" t="s">
         <v>51</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>52</v>
       </c>
-      <c r="D124" t="s">
+      <c r="E124" t="s">
         <v>53</v>
       </c>
-      <c r="E124" t="s">
-        <v>8</v>
-      </c>
       <c r="F124" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G124" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>50</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125">
+        <v>134</v>
+      </c>
+      <c r="C125" t="s">
         <v>51</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
         <v>52</v>
       </c>
-      <c r="D125" t="s">
+      <c r="E125" t="s">
         <v>53</v>
       </c>
-      <c r="E125" t="s">
-        <v>8</v>
-      </c>
       <c r="F125" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G125" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>51</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126">
+        <v>147</v>
+      </c>
+      <c r="C126" t="s">
         <v>51</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>52</v>
       </c>
-      <c r="D126" t="s">
+      <c r="E126" t="s">
         <v>53</v>
       </c>
-      <c r="E126" t="s">
-        <v>8</v>
-      </c>
       <c r="F126" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G126" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>113</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127">
+        <v>238</v>
+      </c>
+      <c r="C127" t="s">
         <v>51</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
         <v>52</v>
       </c>
-      <c r="D127" t="s">
+      <c r="E127" t="s">
         <v>53</v>
       </c>
-      <c r="E127" t="s">
-        <v>8</v>
-      </c>
       <c r="F127" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G127" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>144</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128">
+        <v>503</v>
+      </c>
+      <c r="C128" t="s">
         <v>51</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>52</v>
       </c>
-      <c r="D128" t="s">
+      <c r="E128" t="s">
         <v>53</v>
       </c>
-      <c r="E128" t="s">
-        <v>8</v>
-      </c>
       <c r="F128" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G128" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>159</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129">
+        <v>563</v>
+      </c>
+      <c r="C129" t="s">
         <v>51</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
         <v>52</v>
       </c>
-      <c r="D129" t="s">
+      <c r="E129" t="s">
         <v>53</v>
       </c>
-      <c r="E129" t="s">
-        <v>8</v>
-      </c>
       <c r="F129" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G129" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>28</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130">
+        <v>94</v>
+      </c>
+      <c r="C130" t="s">
         <v>44</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
         <v>45</v>
       </c>
-      <c r="D130" t="s">
+      <c r="E130" t="s">
         <v>26</v>
       </c>
-      <c r="E130" t="s">
+      <c r="F130" t="s">
         <v>46</v>
       </c>
-      <c r="F130" t="s">
+      <c r="G130" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>10</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131">
+        <v>46</v>
+      </c>
+      <c r="C131" t="s">
         <v>31</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
         <v>32</v>
       </c>
-      <c r="D131" t="s">
+      <c r="E131" t="s">
         <v>33</v>
       </c>
-      <c r="E131" t="s">
-        <v>8</v>
-      </c>
       <c r="F131" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G131" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>12</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132">
+        <v>52</v>
+      </c>
+      <c r="C132" t="s">
         <v>31</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
         <v>32</v>
       </c>
-      <c r="D132" t="s">
+      <c r="E132" t="s">
         <v>33</v>
       </c>
-      <c r="E132" t="s">
-        <v>8</v>
-      </c>
       <c r="F132" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G132" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>14</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133">
+        <v>54</v>
+      </c>
+      <c r="C133" t="s">
         <v>31</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
         <v>32</v>
       </c>
-      <c r="D133" t="s">
+      <c r="E133" t="s">
         <v>33</v>
       </c>
-      <c r="E133" t="s">
-        <v>8</v>
-      </c>
       <c r="F133" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G133" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>15</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134">
+        <v>56</v>
+      </c>
+      <c r="C134" t="s">
         <v>31</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
         <v>32</v>
       </c>
-      <c r="D134" t="s">
+      <c r="E134" t="s">
         <v>33</v>
       </c>
-      <c r="E134" t="s">
-        <v>8</v>
-      </c>
       <c r="F134" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G134" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>17</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135">
+        <v>69</v>
+      </c>
+      <c r="C135" t="s">
         <v>31</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
         <v>32</v>
       </c>
-      <c r="D135" t="s">
+      <c r="E135" t="s">
         <v>33</v>
       </c>
-      <c r="E135" t="s">
-        <v>8</v>
-      </c>
       <c r="F135" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G135" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>23</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136">
+        <v>83</v>
+      </c>
+      <c r="C136" t="s">
         <v>31</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
         <v>32</v>
       </c>
-      <c r="D136" t="s">
+      <c r="E136" t="s">
         <v>33</v>
       </c>
-      <c r="E136" t="s">
-        <v>8</v>
-      </c>
       <c r="F136" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G136" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>25</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137">
+        <v>85</v>
+      </c>
+      <c r="C137" t="s">
         <v>31</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
         <v>32</v>
       </c>
-      <c r="D137" t="s">
+      <c r="E137" t="s">
         <v>33</v>
       </c>
-      <c r="E137" t="s">
-        <v>8</v>
-      </c>
       <c r="F137" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G137" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>32</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138">
+        <v>96</v>
+      </c>
+      <c r="C138" t="s">
         <v>31</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
         <v>32</v>
       </c>
-      <c r="D138" t="s">
+      <c r="E138" t="s">
         <v>33</v>
       </c>
-      <c r="E138" t="s">
-        <v>8</v>
-      </c>
       <c r="F138" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G138" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>36</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139">
+        <v>100</v>
+      </c>
+      <c r="C139" t="s">
         <v>31</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
         <v>32</v>
       </c>
-      <c r="D139" t="s">
+      <c r="E139" t="s">
         <v>33</v>
       </c>
-      <c r="E139" t="s">
-        <v>8</v>
-      </c>
       <c r="F139" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G139" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>39</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140">
+        <v>527</v>
+      </c>
+      <c r="C140" t="s">
         <v>31</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
         <v>32</v>
       </c>
-      <c r="D140" t="s">
+      <c r="E140" t="s">
         <v>33</v>
       </c>
-      <c r="E140" t="s">
-        <v>8</v>
-      </c>
       <c r="F140" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G140" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>45</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141">
+        <v>130</v>
+      </c>
+      <c r="C141" t="s">
         <v>31</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
         <v>32</v>
       </c>
-      <c r="D141" t="s">
+      <c r="E141" t="s">
         <v>33</v>
       </c>
-      <c r="E141" t="s">
-        <v>8</v>
-      </c>
       <c r="F141" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G141" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>61</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142">
+        <v>155</v>
+      </c>
+      <c r="C142" t="s">
         <v>31</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
         <v>32</v>
       </c>
-      <c r="D142" t="s">
+      <c r="E142" t="s">
         <v>33</v>
       </c>
-      <c r="E142" t="s">
-        <v>8</v>
-      </c>
       <c r="F142" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G142" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>68</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143">
+        <v>159</v>
+      </c>
+      <c r="C143" t="s">
         <v>31</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
         <v>32</v>
       </c>
-      <c r="D143" t="s">
+      <c r="E143" t="s">
         <v>33</v>
       </c>
-      <c r="E143" t="s">
-        <v>8</v>
-      </c>
       <c r="F143" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G143" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>95</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144">
+        <v>177</v>
+      </c>
+      <c r="C144" t="s">
         <v>31</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
         <v>94</v>
       </c>
-      <c r="D144" t="s">
+      <c r="E144" t="s">
         <v>33</v>
       </c>
-      <c r="E144" t="s">
-        <v>8</v>
-      </c>
       <c r="F144" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>107</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145">
+        <v>196</v>
+      </c>
+      <c r="C145" t="s">
         <v>31</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
         <v>32</v>
       </c>
-      <c r="D145" t="s">
+      <c r="E145" t="s">
         <v>33</v>
       </c>
-      <c r="E145" t="s">
-        <v>8</v>
-      </c>
       <c r="F145" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>108</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146">
+        <v>212</v>
+      </c>
+      <c r="C146" t="s">
         <v>31</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
         <v>32</v>
       </c>
-      <c r="D146" t="s">
+      <c r="E146" t="s">
         <v>33</v>
       </c>
-      <c r="E146" t="s">
-        <v>8</v>
-      </c>
       <c r="F146" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>123</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147">
+        <v>249</v>
+      </c>
+      <c r="C147" t="s">
         <v>31</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
         <v>32</v>
       </c>
-      <c r="D147" t="s">
+      <c r="E147" t="s">
         <v>33</v>
       </c>
-      <c r="E147" t="s">
-        <v>8</v>
-      </c>
       <c r="F147" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G147" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>132</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148">
+        <v>309</v>
+      </c>
+      <c r="C148" t="s">
         <v>31</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D148" t="s">
         <v>32</v>
       </c>
-      <c r="D148" t="s">
+      <c r="E148" t="s">
         <v>33</v>
       </c>
-      <c r="E148" t="s">
-        <v>8</v>
-      </c>
       <c r="F148" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G148" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>133</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149">
+        <v>628</v>
+      </c>
+      <c r="C149" t="s">
         <v>31</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
         <v>32</v>
       </c>
-      <c r="D149" t="s">
+      <c r="E149" t="s">
         <v>33</v>
       </c>
-      <c r="E149" t="s">
-        <v>8</v>
-      </c>
       <c r="F149" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G149" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>134</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150">
+        <v>1093</v>
+      </c>
+      <c r="C150" t="s">
         <v>31</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
         <v>32</v>
       </c>
-      <c r="D150" t="s">
+      <c r="E150" t="s">
         <v>33</v>
       </c>
-      <c r="E150" t="s">
-        <v>8</v>
-      </c>
       <c r="F150" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G150" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>140</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151">
+        <v>437</v>
+      </c>
+      <c r="C151" t="s">
         <v>127</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D151" t="s">
         <v>128</v>
       </c>
-      <c r="D151" t="s">
+      <c r="E151" t="s">
         <v>129</v>
       </c>
-      <c r="E151" t="s">
-        <v>8</v>
-      </c>
       <c r="F151" t="s">
+        <v>8</v>
+      </c>
+      <c r="G151" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>112</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152">
+        <v>238</v>
+      </c>
+      <c r="C152" t="s">
         <v>104</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D152" t="s">
         <v>105</v>
       </c>
-      <c r="D152" t="s">
+      <c r="E152" t="s">
         <v>106</v>
       </c>
-      <c r="E152" t="s">
-        <v>8</v>
-      </c>
       <c r="F152" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>77</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153">
+        <v>164</v>
+      </c>
+      <c r="C153" t="s">
         <v>79</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
         <v>80</v>
       </c>
-      <c r="D153" t="s">
+      <c r="E153" t="s">
         <v>81</v>
       </c>
-      <c r="E153" t="s">
-        <v>8</v>
-      </c>
       <c r="F153" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G153" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>56</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154">
+        <v>152</v>
+      </c>
+      <c r="C154" t="s">
         <v>59</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
         <v>60</v>
       </c>
-      <c r="D154" t="s">
+      <c r="E154" t="s">
         <v>61</v>
       </c>
-      <c r="E154" t="s">
-        <v>8</v>
-      </c>
       <c r="F154" t="s">
+        <v>8</v>
+      </c>
+      <c r="G154" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>58</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155">
+        <v>153</v>
+      </c>
+      <c r="C155" t="s">
         <v>59</v>
       </c>
-      <c r="C155" t="s">
+      <c r="D155" t="s">
         <v>60</v>
       </c>
-      <c r="D155" t="s">
+      <c r="E155" t="s">
         <v>61</v>
       </c>
-      <c r="E155" t="s">
-        <v>8</v>
-      </c>
       <c r="F155" t="s">
+        <v>8</v>
+      </c>
+      <c r="G155" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>62</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="B156" s="1">
+        <v>156</v>
+      </c>
+      <c r="C156" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="D156" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="E156" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E156" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F156" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G156" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>67</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157">
+        <v>158</v>
+      </c>
+      <c r="C157" t="s">
         <v>59</v>
       </c>
-      <c r="C157" t="s">
+      <c r="D157" t="s">
         <v>60</v>
       </c>
-      <c r="D157" t="s">
+      <c r="E157" t="s">
         <v>61</v>
       </c>
-      <c r="E157" t="s">
-        <v>8</v>
-      </c>
       <c r="F157" t="s">
+        <v>8</v>
+      </c>
+      <c r="G157" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>74</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158">
+        <v>161</v>
+      </c>
+      <c r="C158" t="s">
         <v>59</v>
       </c>
-      <c r="C158" t="s">
+      <c r="D158" t="s">
         <v>60</v>
       </c>
-      <c r="D158" t="s">
+      <c r="E158" t="s">
         <v>61</v>
       </c>
-      <c r="E158" t="s">
-        <v>8</v>
-      </c>
       <c r="F158" t="s">
+        <v>8</v>
+      </c>
+      <c r="G158" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>81</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159">
+        <v>165</v>
+      </c>
+      <c r="C159" t="s">
         <v>59</v>
       </c>
-      <c r="C159" t="s">
+      <c r="D159" t="s">
         <v>60</v>
       </c>
-      <c r="D159" t="s">
+      <c r="E159" t="s">
         <v>61</v>
       </c>
-      <c r="E159" t="s">
-        <v>8</v>
-      </c>
       <c r="F159" t="s">
+        <v>8</v>
+      </c>
+      <c r="G159" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>83</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160">
+        <v>166</v>
+      </c>
+      <c r="C160" t="s">
         <v>59</v>
       </c>
-      <c r="C160" t="s">
+      <c r="D160" t="s">
         <v>60</v>
       </c>
-      <c r="D160" t="s">
+      <c r="E160" t="s">
         <v>61</v>
       </c>
-      <c r="E160" t="s">
-        <v>8</v>
-      </c>
       <c r="F160" t="s">
+        <v>8</v>
+      </c>
+      <c r="G160" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>85</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161">
+        <v>167</v>
+      </c>
+      <c r="C161" t="s">
         <v>59</v>
       </c>
-      <c r="C161" t="s">
+      <c r="D161" t="s">
         <v>60</v>
       </c>
-      <c r="D161" t="s">
+      <c r="E161" t="s">
         <v>61</v>
       </c>
-      <c r="E161" t="s">
-        <v>8</v>
-      </c>
       <c r="F161" t="s">
+        <v>8</v>
+      </c>
+      <c r="G161" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>88</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162">
+        <v>169</v>
+      </c>
+      <c r="C162" t="s">
         <v>59</v>
       </c>
-      <c r="C162" t="s">
+      <c r="D162" t="s">
         <v>60</v>
       </c>
-      <c r="D162" t="s">
+      <c r="E162" t="s">
         <v>61</v>
       </c>
-      <c r="E162" t="s">
-        <v>8</v>
-      </c>
       <c r="F162" t="s">
+        <v>8</v>
+      </c>
+      <c r="G162" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>90</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163">
+        <v>170</v>
+      </c>
+      <c r="C163" t="s">
         <v>59</v>
       </c>
-      <c r="C163" t="s">
+      <c r="D163" t="s">
         <v>60</v>
       </c>
-      <c r="D163" t="s">
+      <c r="E163" t="s">
         <v>61</v>
       </c>
-      <c r="E163" t="s">
-        <v>8</v>
-      </c>
       <c r="F163" t="s">
+        <v>8</v>
+      </c>
+      <c r="G163" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>96</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164">
+        <v>177</v>
+      </c>
+      <c r="C164" t="s">
         <v>59</v>
       </c>
-      <c r="C164" t="s">
+      <c r="D164" t="s">
         <v>60</v>
       </c>
-      <c r="D164" t="s">
+      <c r="E164" t="s">
         <v>61</v>
       </c>
-      <c r="E164" t="s">
-        <v>8</v>
-      </c>
       <c r="F164" t="s">
+        <v>8</v>
+      </c>
+      <c r="G164" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>98</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165">
+        <v>178</v>
+      </c>
+      <c r="C165" t="s">
         <v>59</v>
       </c>
-      <c r="C165" t="s">
+      <c r="D165" t="s">
         <v>60</v>
       </c>
-      <c r="D165" t="s">
+      <c r="E165" t="s">
         <v>61</v>
       </c>
-      <c r="E165" t="s">
-        <v>8</v>
-      </c>
       <c r="F165" t="s">
+        <v>8</v>
+      </c>
+      <c r="G165" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>114</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166">
+        <v>238</v>
+      </c>
+      <c r="C166" t="s">
         <v>59</v>
       </c>
-      <c r="C166" t="s">
+      <c r="D166" t="s">
         <v>60</v>
       </c>
-      <c r="D166" t="s">
+      <c r="E166" t="s">
         <v>61</v>
       </c>
-      <c r="E166" t="s">
-        <v>8</v>
-      </c>
       <c r="F166" t="s">
+        <v>8</v>
+      </c>
+      <c r="G166" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>118</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167">
+        <v>240</v>
+      </c>
+      <c r="C167" t="s">
         <v>59</v>
       </c>
-      <c r="C167" t="s">
+      <c r="D167" t="s">
         <v>60</v>
       </c>
-      <c r="D167" t="s">
+      <c r="E167" t="s">
         <v>61</v>
       </c>
-      <c r="E167" t="s">
-        <v>8</v>
-      </c>
       <c r="F167" t="s">
+        <v>8</v>
+      </c>
+      <c r="G167" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>163</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168">
+        <v>859</v>
+      </c>
+      <c r="C168" t="s">
         <v>59</v>
       </c>
-      <c r="C168" t="s">
+      <c r="D168" t="s">
         <v>60</v>
       </c>
-      <c r="D168" t="s">
+      <c r="E168" t="s">
         <v>61</v>
       </c>
-      <c r="E168" t="s">
-        <v>8</v>
-      </c>
       <c r="F168" t="s">
+        <v>8</v>
+      </c>
+      <c r="G168" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>75</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169">
+        <v>163</v>
+      </c>
+      <c r="C169" t="s">
         <v>76</v>
       </c>
-      <c r="C169" t="s">
+      <c r="D169" t="s">
         <v>77</v>
       </c>
-      <c r="D169" t="s">
+      <c r="E169" t="s">
         <v>78</v>
       </c>
-      <c r="E169" t="s">
-        <v>8</v>
-      </c>
       <c r="F169" t="s">
+        <v>8</v>
+      </c>
+      <c r="G169" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F169">
-    <sortCondition ref="B1:B169"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G169">
+    <sortCondition ref="C1:C169"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526F31F5-B02A-5740-87CE-9D773BE86CC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F0D5C7-16AA-9F41-A267-34D69F837642}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5197,4 +5709,38 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB8AC6A-C797-F64E-A13A-B195FE9524EC}">
+  <dimension ref="B1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>